--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06577854272022</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H2">
-        <v>1.06577854272022</v>
+        <v>3.919139</v>
       </c>
       <c r="I2">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J2">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>12.9060615861212</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N2">
-        <v>12.9060615861212</v>
+        <v>0.075215</v>
       </c>
       <c r="O2">
-        <v>0.8107704175685406</v>
+        <v>0.001520672841173258</v>
       </c>
       <c r="P2">
-        <v>0.8107704175685406</v>
+        <v>0.001520672841173258</v>
       </c>
       <c r="Q2">
-        <v>13.75500350951366</v>
+        <v>0.03275311554277778</v>
       </c>
       <c r="R2">
-        <v>13.75500350951366</v>
+        <v>0.294778039885</v>
       </c>
       <c r="S2">
-        <v>0.2934307681180882</v>
+        <v>0.0006135798030466163</v>
       </c>
       <c r="T2">
-        <v>0.2934307681180882</v>
+        <v>0.0006135798030466162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.06577854272022</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H3">
-        <v>1.06577854272022</v>
+        <v>3.919139</v>
       </c>
       <c r="I3">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J3">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.01220739170587</v>
+        <v>13.42247233333333</v>
       </c>
       <c r="N3">
-        <v>3.01220739170587</v>
+        <v>40.267417</v>
       </c>
       <c r="O3">
-        <v>0.1892295824314594</v>
+        <v>0.8141137727328104</v>
       </c>
       <c r="P3">
-        <v>0.1892295824314594</v>
+        <v>0.8141137727328106</v>
       </c>
       <c r="Q3">
-        <v>3.210346004303357</v>
+        <v>17.53484493266255</v>
       </c>
       <c r="R3">
-        <v>3.210346004303357</v>
+        <v>157.813604393963</v>
       </c>
       <c r="S3">
-        <v>0.06848520927792015</v>
+        <v>0.3284886497647539</v>
       </c>
       <c r="T3">
-        <v>0.06848520927792015</v>
+        <v>0.3284886497647539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.03153785161672</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H4">
-        <v>1.03153785161672</v>
+        <v>3.919139</v>
       </c>
       <c r="I4">
-        <v>0.3502885588557468</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J4">
-        <v>0.3502885588557468</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.9060615861212</v>
+        <v>3.039675333333333</v>
       </c>
       <c r="N4">
-        <v>12.9060615861212</v>
+        <v>9.119026</v>
       </c>
       <c r="O4">
-        <v>0.8107704175685406</v>
+        <v>0.1843655544260162</v>
       </c>
       <c r="P4">
-        <v>0.8107704175685406</v>
+        <v>0.1843655544260162</v>
       </c>
       <c r="Q4">
-        <v>13.31309104138054</v>
+        <v>3.970970048734889</v>
       </c>
       <c r="R4">
-        <v>13.31309104138054</v>
+        <v>35.738730438614</v>
       </c>
       <c r="S4">
-        <v>0.2840036011329562</v>
+        <v>0.07439008411961673</v>
       </c>
       <c r="T4">
-        <v>0.2840036011329562</v>
+        <v>0.07439008411961673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.03153785161672</v>
+        <v>1.072562</v>
       </c>
       <c r="H5">
-        <v>1.03153785161672</v>
+        <v>3.217686</v>
       </c>
       <c r="I5">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J5">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.01220739170587</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N5">
-        <v>3.01220739170587</v>
+        <v>0.075215</v>
       </c>
       <c r="O5">
-        <v>0.1892295824314594</v>
+        <v>0.001520672841173258</v>
       </c>
       <c r="P5">
-        <v>0.1892295824314594</v>
+        <v>0.001520672841173258</v>
       </c>
       <c r="Q5">
-        <v>3.107205941464277</v>
+        <v>0.02689091694333333</v>
       </c>
       <c r="R5">
-        <v>3.107205941464277</v>
+        <v>0.24201825249</v>
       </c>
       <c r="S5">
-        <v>0.06628495772279065</v>
+        <v>0.0005037604285394965</v>
       </c>
       <c r="T5">
-        <v>0.06628495772279065</v>
+        <v>0.0005037604285394967</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.847506739442659</v>
+        <v>1.072562</v>
       </c>
       <c r="H6">
-        <v>0.847506739442659</v>
+        <v>3.217686</v>
       </c>
       <c r="I6">
-        <v>0.2877954637482447</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J6">
-        <v>0.2877954637482447</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.9060615861212</v>
+        <v>13.42247233333333</v>
       </c>
       <c r="N6">
-        <v>12.9060615861212</v>
+        <v>40.267417</v>
       </c>
       <c r="O6">
-        <v>0.8107704175685406</v>
+        <v>0.8141137727328104</v>
       </c>
       <c r="P6">
-        <v>0.8107704175685406</v>
+        <v>0.8141137727328106</v>
       </c>
       <c r="Q6">
-        <v>10.93797417389973</v>
+        <v>14.39643377078466</v>
       </c>
       <c r="R6">
-        <v>10.93797417389973</v>
+        <v>129.567903937062</v>
       </c>
       <c r="S6">
-        <v>0.2333360483174961</v>
+        <v>0.2696952900897242</v>
       </c>
       <c r="T6">
-        <v>0.2333360483174961</v>
+        <v>0.2696952900897243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.847506739442659</v>
+        <v>1.072562</v>
       </c>
       <c r="H7">
-        <v>0.847506739442659</v>
+        <v>3.217686</v>
       </c>
       <c r="I7">
-        <v>0.2877954637482447</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J7">
-        <v>0.2877954637482447</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.01220739170587</v>
+        <v>3.039675333333333</v>
       </c>
       <c r="N7">
-        <v>3.01220739170587</v>
+        <v>9.119026</v>
       </c>
       <c r="O7">
-        <v>0.1892295824314594</v>
+        <v>0.1843655544260162</v>
       </c>
       <c r="P7">
-        <v>0.1892295824314594</v>
+        <v>0.1843655544260162</v>
       </c>
       <c r="Q7">
-        <v>2.552866065069718</v>
+        <v>3.260240254870666</v>
       </c>
       <c r="R7">
-        <v>2.552866065069718</v>
+        <v>29.342162293836</v>
       </c>
       <c r="S7">
-        <v>0.05445941543074855</v>
+        <v>0.06107564243332859</v>
       </c>
       <c r="T7">
-        <v>0.05445941543074855</v>
+        <v>0.06107564243332861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8587400000000001</v>
+      </c>
+      <c r="H8">
+        <v>2.57622</v>
+      </c>
+      <c r="I8">
+        <v>0.2652329933609903</v>
+      </c>
+      <c r="J8">
+        <v>0.2652329933609903</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02507166666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.075215</v>
+      </c>
+      <c r="O8">
+        <v>0.001520672841173258</v>
+      </c>
+      <c r="P8">
+        <v>0.001520672841173258</v>
+      </c>
+      <c r="Q8">
+        <v>0.02153004303333334</v>
+      </c>
+      <c r="R8">
+        <v>0.1937703873</v>
+      </c>
+      <c r="S8">
+        <v>0.000403332609587145</v>
+      </c>
+      <c r="T8">
+        <v>0.0004033326095871449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8587400000000001</v>
+      </c>
+      <c r="H9">
+        <v>2.57622</v>
+      </c>
+      <c r="I9">
+        <v>0.2652329933609903</v>
+      </c>
+      <c r="J9">
+        <v>0.2652329933609903</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.42247233333333</v>
+      </c>
+      <c r="N9">
+        <v>40.267417</v>
+      </c>
+      <c r="O9">
+        <v>0.8141137727328104</v>
+      </c>
+      <c r="P9">
+        <v>0.8141137727328106</v>
+      </c>
+      <c r="Q9">
+        <v>11.52641389152667</v>
+      </c>
+      <c r="R9">
+        <v>103.73772502374</v>
+      </c>
+      <c r="S9">
+        <v>0.2159298328783323</v>
+      </c>
+      <c r="T9">
+        <v>0.2159298328783323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8587400000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.57622</v>
+      </c>
+      <c r="I10">
+        <v>0.2652329933609903</v>
+      </c>
+      <c r="J10">
+        <v>0.2652329933609903</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.039675333333333</v>
+      </c>
+      <c r="N10">
+        <v>9.119026</v>
+      </c>
+      <c r="O10">
+        <v>0.1843655544260162</v>
+      </c>
+      <c r="P10">
+        <v>0.1843655544260162</v>
+      </c>
+      <c r="Q10">
+        <v>2.610290795746667</v>
+      </c>
+      <c r="R10">
+        <v>23.49261716172</v>
+      </c>
+      <c r="S10">
+        <v>0.04889982787307085</v>
+      </c>
+      <c r="T10">
+        <v>0.04889982787307084</v>
       </c>
     </row>
   </sheetData>
